--- a/doc/zn接口测试0118.xlsx
+++ b/doc/zn接口测试0118.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6080" windowWidth="33600" windowHeight="13100" tabRatio="500"/>
+    <workbookView xWindow="18040" yWindow="860" windowWidth="33600" windowHeight="19180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>司机端打开后自动生成</t>
-  </si>
-  <si>
-    <t>驾驶员统计信息</t>
   </si>
   <si>
     <t>乘客端注册后自动生成</t>
@@ -1696,10 +1693,6 @@
   "CompanyId": "zncx"
  },</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>网约车驾驶员培训信息(baseInfoDriverEducate)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3315,10 +3308,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Checked</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> "orderMatch": {
   "OrderId": "5a60c604c205de00016695ad",
@@ -3379,11 +3368,32 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>未找到</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>待测试</t>
+    <t>网约车驾驶员培训信息(baseInfoDriverEducate)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶员统计信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "LicenseId": "Ghjk ",
+ "Address": 213000,
+ "Cycle": 201801,
+ "Flag": 1,
+ "ComplainedCount": 0,
+ "TafficViolationCount": 0,
+ "OrderCount": 2,
+ "CompanyId": "zncx"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checked</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checked</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3630,7 +3640,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3703,9 +3713,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4123,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4158,13 +4165,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -4175,13 +4182,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
@@ -4195,13 +4202,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>5</v>
@@ -4212,13 +4219,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
@@ -4229,13 +4236,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>5</v>
@@ -4246,13 +4253,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>5</v>
@@ -4263,13 +4270,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>6</v>
@@ -4280,13 +4287,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>5</v>
@@ -4297,13 +4304,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>7</v>
@@ -4314,13 +4321,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
@@ -4331,13 +4338,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>5</v>
@@ -4348,29 +4355,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:7" ht="150">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -4382,16 +4389,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="409.5" customHeight="1">
@@ -4399,16 +4406,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" customHeight="1">
@@ -4416,16 +4423,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="160">
@@ -4433,16 +4440,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" customHeight="1">
@@ -4450,16 +4457,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="137">
@@ -4467,16 +4474,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" customHeight="1">
@@ -4484,16 +4491,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" customHeight="1">
@@ -4501,16 +4508,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409">
@@ -4518,16 +4525,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" customHeight="1">
@@ -4535,16 +4542,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" customHeight="1">
@@ -4552,16 +4559,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="135">
@@ -4569,16 +4576,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="122">
@@ -4586,13 +4593,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>5</v>
@@ -4603,13 +4610,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>5</v>
@@ -4620,13 +4627,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>5</v>
@@ -4637,14 +4644,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
@@ -4652,14 +4659,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1">
@@ -4667,14 +4674,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4682,14 +4689,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4697,11 +4704,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E34" s="6"/>
     </row>

--- a/doc/zn接口测试0118.xlsx
+++ b/doc/zn接口测试0118.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="860" windowWidth="33600" windowHeight="19180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="6080" windowWidth="33600" windowHeight="13100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>司机端打开后自动生成</t>
+  </si>
+  <si>
+    <t>驾驶员统计信息</t>
   </si>
   <si>
     <t>乘客端注册后自动生成</t>
@@ -1693,6 +1696,10 @@
   "CompanyId": "zncx"
  },</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网约车驾驶员培训信息(baseInfoDriverEducate)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3308,6 +3315,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Checked</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> "orderMatch": {
   "OrderId": "5a60c604c205de00016695ad",
@@ -3368,32 +3379,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>网约车驾驶员培训信息(baseInfoDriverEducate)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>驾驶员统计信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "LicenseId": "Ghjk ",
- "Address": 213000,
- "Cycle": 201801,
- "Flag": 1,
- "ComplainedCount": 0,
- "TafficViolationCount": 0,
- "OrderCount": 2,
- "CompanyId": "zncx"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checked</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checked</t>
+    <t>未找到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3640,7 +3630,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3713,6 +3703,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4130,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4165,13 +4158,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -4182,13 +4175,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
@@ -4202,13 +4195,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>5</v>
@@ -4219,13 +4212,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
@@ -4236,13 +4229,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>5</v>
@@ -4253,13 +4246,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>5</v>
@@ -4270,13 +4263,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>6</v>
@@ -4287,13 +4280,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>5</v>
@@ -4304,13 +4297,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>7</v>
@@ -4321,13 +4314,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
@@ -4338,13 +4331,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>5</v>
@@ -4355,29 +4348,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="150">
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -4389,16 +4382,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="409.5" customHeight="1">
@@ -4406,16 +4399,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" customHeight="1">
@@ -4423,16 +4416,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="160">
@@ -4440,16 +4433,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" customHeight="1">
@@ -4457,16 +4450,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="137">
@@ -4474,16 +4467,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" customHeight="1">
@@ -4491,16 +4484,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" customHeight="1">
@@ -4508,16 +4501,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409">
@@ -4525,16 +4518,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" customHeight="1">
@@ -4542,16 +4535,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" customHeight="1">
@@ -4559,16 +4552,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="135">
@@ -4576,16 +4569,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="122">
@@ -4593,13 +4586,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>5</v>
@@ -4610,13 +4603,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>5</v>
@@ -4627,13 +4620,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>5</v>
@@ -4644,14 +4637,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
@@ -4659,14 +4652,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1">
@@ -4674,14 +4667,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4689,14 +4682,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4704,11 +4697,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E34" s="6"/>
     </row>
